--- a/SWE 2/ST-Comm_Testing/createCourse.xlsx
+++ b/SWE 2/ST-Comm_Testing/createCourse.xlsx
@@ -36,7 +36,7 @@
     <t>physics</t>
   </si>
   <si>
-    <t>English</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -355,33 +355,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
